--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:17:43+00:00</t>
+    <t>2021-10-20T05:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:25:12+00:00</t>
+    <t>2021-10-20T19:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:39:21+00:00</t>
+    <t>2021-10-20T19:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:41:28+00:00</t>
+    <t>2021-10-20T19:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:53:48+00:00</t>
+    <t>2021-10-21T22:21:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T22:21:25+00:00</t>
+    <t>2021-10-22T16:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T16:49:58+00:00</t>
+    <t>2021-10-26T17:35:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-phn-business-date.xlsx
+++ b/StructureDefinition-bc-phn-business-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T17:35:26+00:00</t>
+    <t>2021-10-26T20:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
